--- a/CommentFilter.xlsx
+++ b/CommentFilter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maksim/Documents/LazbaScraperNew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99060870-E535-F04C-B7FA-63A6F090BA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4CAEDA-0FA2-8A41-89D9-C0DC9176E89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="860" windowWidth="15520" windowHeight="19500" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17100" yWindow="860" windowWidth="15520" windowHeight="19500" tabRatio="500" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Агрессивность" sheetId="1" r:id="rId1"/>
@@ -93,11 +93,6 @@
     <t>1-13</t>
   </si>
   <si>
-    <t xml:space="preserve">Твой результат «ЦИФРА» из 30. Это говорит, что в определенных ситуациях ты можешь действовать практично и не следовать общественным установкам о том, что плохо и что хорошо. Но поскольку твой результат не самый большой — это говорит о том, что тебе может не хватать готовности перейти рубеж моральных норм и действовать в своих интересах, при этом пренебрегая интересами других. 
-Мы можем взять пример из общества приматов. Дело в том, что у них альфа-самцами становятся не только самые сильные физически самцы, но и самые сообразительные, а также — хитрые. Так например, описаны случаи, когда более сообразительный самец — свергал с «трона» более сильного самца за счет договоренностей с товарищами или изобретения оружия, которое компенсировало физическую силу. Поэтому помни, что для того, чтобы завоевать место на человеческом «троне» нужно быть готовым пренебрегать интересами других людей в пользу исключительно своих. 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">По этой шкале ты набрал «ЦИФРА» из 30. Это довольно неплохой результат. Этот балл говорит о том, что в своих поступках ты совершенно не зависишь от мнения других людей и привык поступать только в соответствии со своими собственными интересами. Скорее всего, тебя так же отличает высокая готовность использовать других людей в своих интересах. На курсе мы еще разберем проблему социальных установок и как это влияет на наше мышление и поступки. Уверен, это поможет тебе стать еще более независимым мужчиной. 
 </t>
   </si>
@@ -128,12 +123,6 @@
   </si>
   <si>
     <t xml:space="preserve">К сожалению, по этой шкале ты находишься в самом верху. Ты набрал «ЦИФРА» из 30-ти. Это означает, что у тебя есть серьезная зависимость от легкодоступного дофамина, и тебе сложно насладиться настоящей жизнью. Мы настоятельно рекомендуем тебе обратить внимание на эту черту и, как можно больше, поработать именно над ней на нашем курсе. Будь особенно внимателен, когда мы будем затрагивать темы, посвященные половому воздержанию и, в целом, восстановления дофаминовых рецепторов.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Последняя шкала называется «маскулинность – фемининность» и фокусируется как раз на тех особенностях, которые, как показывают исследования, различают мужчин и женщин.
-Тех, кто набрал по этой шкале высокие баллы — не пугают ползающие существа, например пауки, не отвращает вид крови и другие непривлекательные зрелища; они легко выносят (и, возможно, даже получают удовольствие, наблюдая) насилие, грубость и ругань. Такие люди не склонны выказывать слабость и сентиментальность по какому-либо поводу, например: плакать или открыто демонстрировать свою любовь, они больше склонны полагаться на разум, а не на интуицию. 
-Люди, получившие низкие баллы, наоборот — легко приходят в расстройство при виде пауков, крови, сцен жестокости и т.д., проявляют повышенный интерес к таким утонченным вещам, как романтические отношения, дети, искусство, цветы, одежда и т.п.
 </t>
   </si>
   <si>
@@ -233,14 +222,6 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Твоя готовность быть расчетливым и практичным с людьми на очень низком уровне («ЦИФРА» из 30). Скорее всего, это мешает твоему успеху. 
-Иногда для того, чтобы достичь чего-то, нужно использовать других людей. Слишком большое желание всем помочь и всем угодить не сделает тебя сильнее. Благодаря этой черте люди будут думать о тебе, как о хорошем человеке, который следует моральным установкам: «что хорошо и что плохо». Но при этом ты так и останешься выгодным для социума запрограммированным роботом, не достигшим ничего большого в жизни.
-Тебе нужно запомнить один важный урок: справедливости не существует. Чем раньше ты это поймешь, тем легче тебе будет развить в себе способность использовать других людей для собственных целей, не всегда увеличивая их благополучие.
-Нужно понимать, что выживает сильнейший, а с появлением общества — умнейший человек. Благородные и справедливые люди, как правило, оказываются дураками, использованными другими. Настоящего мужчину интересуют только собственные интересы.
-Представь мужчину, который уделяет больше внимания чужой женщине, а не своей. Или дарит подарок чужому ребенку, вместо своего. Когда ты заботишься о благе других, больше чем о своем — ты делаешь то же самое.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Третья шкала называется «установка на успех».
 Люди, имеющие высокие баллы по этой шкале, — амбициозны, трудолюбивы, любят состязательность во всем, стремятся к повышению своего социального статуса, высоко ценят продуктивность и творческое начало. Низкие баллы свидетельствуют о нелюбви к конкурентным и творческим видам деятельности. Такие люди апатичны, расслаблены и не имеют четких целей.
 Ты набрал «ЦИФРА» из 30-ти.
@@ -292,6 +273,19 @@
 Я прошу тебя приложить максимум сил для работы над собой. В моем курсе есть все, что тебе нужно. Мы разберем ошибки в мышлении, и поймем, какие конкретные действия нужно предпринять, чтобы улучшить свою жизнь.
 Я желаю тебе успехов в работе над собой и до встречи на курсе!
 Дэвид Лазба</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Твоя готовность быть расчетливым и практичным с людьми на очень низком уровне («ЦИФРА» из 30). Скорее всего, это мешает твоему успеху. Иногда для того, чтобы достичь чего-то, нужно использовать других людей. Слишком большое желание всем помочь и всем угодить не сделает тебя сильнее. Благодаря этой черте люди будут думать о тебе, как о хорошем человеке, который следует моральным установкам: «что хорошо и что плохо». Но при этом ты так и останешься выгодным для социума запрограммированным роботом, не достигшим ничего большого в жизни. Тебе нужно запомнить один важный урок: справедливости не существует. Чем раньше ты это поймешь, тем легче тебе будет развить в себе способность использовать других людей для собственных целей, не всегда увеличивая их благополучие. Нужно понимать, что выживает сильнейший, а с появлением общества — умнейший человек. Благородные и справедливые люди, как правило, оказываются дураками, использованными другими. Настоящего мужчину интересуют только собственные интересы. Представь мужчину, который уделяет больше внимания чужой женщине, а не своей. Или дарит подарок чужому ребенку, вместо своего. Когда ты заботишься о благе других, больше чем о своем — ты делаешь то же самое.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Твой результат «ЦИФРА» из 30. Это говорит, что в определенных ситуациях ты можешь действовать практично и не следовать общественным установкам о том, что плохо и что хорошо. Но поскольку твой результат не самый большой — это говорит о том, что тебе может не хватать готовности перейти рубеж моральных норм и действовать в своих интересах, при этом пренебрегая интересами других. Мы можем взять пример из общества приматов. Дело в том, что у них альфа-самцами становятся не только самые сильные физически самцы, но и самые сообразительные, а также — хитрые. Так например, описаны случаи, когда более сообразительный самец — свергал с «трона» более сильного самца за счет договоренностей с товарищами или изобретения оружия, которое компенсировало физическую силу. Поэтому помни, что для того, чтобы завоевать место на человеческом «троне» нужно быть готовым пренебрегать интересами других людей в пользу исключительно своих. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Последняя шкала называется «маскулинность – фемининность» и фокусируется как раз на тех особенностях, которые, как показывают исследования, различают мужчин и женщин.
+Тех, кто набрал по этой шкале высокие баллы — не пугают ползающие существа, например пауки, не отвращает вид крови и другие непривлекательные зрелища; они легко выносят (и, возможно, даже получают удовольствие, наблюдая) насилие, грубость и ругань. Такие люди не склонны выказывать слабость и сентиментальность по какому-либо поводу, например: плакать или открыто демонстрировать свою любовь, они больше склонны полагаться на разум, а не на интуицию. Люди, получившие низкие баллы, наоборот — легко приходят в расстройство при виде пауков, крови, сцен жестокости и т.д., проявляют повышенный интерес к таким утонченным вещам, как романтические отношения, дети, искусство, цветы, одежда и т.п.
+</t>
   </si>
 </sst>
 </file>
@@ -672,13 +666,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -28719,13 +28713,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -28747,10 +28741,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -28783,7 +28777,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>11</v>
@@ -28811,10 +28805,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
@@ -28830,8 +28824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -28847,13 +28841,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -28875,13 +28869,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -28911,16 +28905,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -28928,16 +28922,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="300" x14ac:dyDescent="0.15">
@@ -28945,16 +28939,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -28967,8 +28961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -28983,13 +28977,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -28998,13 +28992,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="398" x14ac:dyDescent="0.15">
@@ -29012,13 +29006,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -29032,7 +29026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -29045,16 +29039,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -29081,16 +29075,16 @@
     </row>
     <row r="2" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
